--- a/SE_G_U3_EQ_0/Python/KNN/InstanciaClase_Explicacion_KNN.xlsx
+++ b/SE_G_U3_EQ_0/Python/KNN/InstanciaClase_Explicacion_KNN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\SE GRUPO I 2022 - 1\Unidad 2\TecnicasInteraccionUsuario\KNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrohumbertogarciaruiz/Desktop/FIANS-2023_1/SE_G/SE_G_2023_1_ProgsClase/SE_G_U3_EQ_0/Python/KNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BDA0E-C693-468D-A8C2-BA69ACA21BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580E1A0-F7A8-2B4E-A1DD-D76E981975AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instancia_Explicacion_KNN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
   <si>
     <t>k = 1</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>k = 13</t>
+  </si>
+  <si>
+    <t>Destiancia Euclidiana</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Clase</t>
   </si>
 </sst>
 </file>
@@ -228,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +444,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -581,10 +617,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,43 +981,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="7" width="4.83203125" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="55" max="55" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.6640625" customWidth="1"/>
+    <col min="57" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="AG1" t="s">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AI1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -989,2095 +1033,2478 @@
       <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>75</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>70</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>85</v>
-      </c>
-      <c r="G3">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>42</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>76</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>83</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1444</v>
-      </c>
-      <c r="T3">
-        <v>7569</v>
-      </c>
-      <c r="U3">
-        <v>2025</v>
-      </c>
-      <c r="V3">
-        <v>36</v>
-      </c>
-      <c r="W3">
-        <v>6724</v>
-      </c>
-      <c r="X3">
-        <v>49</v>
-      </c>
-      <c r="Y3">
-        <v>133.59</v>
-      </c>
-      <c r="AC3">
-        <v>15</v>
-      </c>
-      <c r="AD3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AG3">
-        <v>15</v>
-      </c>
-      <c r="AH3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL3">
-        <v>15</v>
-      </c>
-      <c r="AM3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ3">
-        <v>15</v>
-      </c>
-      <c r="AR3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV3">
-        <v>15</v>
-      </c>
-      <c r="AW3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA3">
-        <v>15</v>
-      </c>
-      <c r="BB3">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>15</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-      <c r="F4">
-        <v>79</v>
       </c>
       <c r="G4">
         <v>90</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>83</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>POWER(J$4-B4,2)</f>
+        <v>1444</v>
+      </c>
+      <c r="T4">
+        <f>POWER(K$4-C4,2)</f>
+        <v>7569</v>
+      </c>
+      <c r="U4">
+        <f>POWER(L$4-D4,2)</f>
+        <v>2025</v>
+      </c>
+      <c r="V4">
+        <f>POWER(M$4-E4,2)</f>
+        <v>36</v>
+      </c>
+      <c r="W4">
+        <f>POWER(N$4-F4,2)</f>
+        <v>6724</v>
+      </c>
+      <c r="X4">
+        <f>POWER(O$4-G4,2)</f>
+        <v>49</v>
+      </c>
+      <c r="Y4">
+        <f>SUM(S4:X4)</f>
+        <v>17847</v>
+      </c>
+      <c r="Z4">
+        <f>SQRT(Y4)</f>
+        <v>133.5926644692739</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>133.5926644692739</v>
+      </c>
+      <c r="AE4">
+        <v>15</v>
+      </c>
+      <c r="AF4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AI4">
+        <v>15</v>
+      </c>
+      <c r="AJ4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4">
+        <v>15</v>
+      </c>
+      <c r="AO4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4">
+        <v>15</v>
+      </c>
+      <c r="AT4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4">
+        <v>15</v>
+      </c>
+      <c r="AY4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4">
+        <v>15</v>
+      </c>
+      <c r="BD4">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="S4">
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f>POWER(J$4-B5,2)</f>
         <v>1089</v>
       </c>
-      <c r="T4">
+      <c r="T5">
+        <f t="shared" ref="T5:T24" si="0">POWER(K$4-C5,2)</f>
         <v>3136</v>
       </c>
-      <c r="U4">
+      <c r="U5">
+        <f t="shared" ref="U5:U24" si="1">POWER(L$4-D5,2)</f>
         <v>1849</v>
       </c>
-      <c r="V4">
+      <c r="V5">
+        <f t="shared" ref="V5:V24" si="2">POWER(M$4-E5,2)</f>
         <v>196</v>
       </c>
-      <c r="W4">
+      <c r="W5">
+        <f t="shared" ref="W5:W24" si="3">POWER(N$4-F5,2)</f>
         <v>5776</v>
       </c>
-      <c r="X4">
+      <c r="X5">
+        <f t="shared" ref="X5:X24" si="4">POWER(O$4-G5,2)</f>
         <v>49</v>
       </c>
-      <c r="Y4">
-        <v>109.98</v>
-      </c>
-      <c r="AC4">
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y24" si="5">SUM(S5:X5)</f>
+        <v>12095</v>
+      </c>
+      <c r="Z5">
+        <f>SQRT(Y5)</f>
+        <v>109.97727037892875</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>109.97727037892875</v>
+      </c>
+      <c r="AE5">
         <v>10</v>
       </c>
-      <c r="AD4">
+      <c r="AF5">
         <v>50.64</v>
       </c>
-      <c r="AG4">
+      <c r="AI5">
         <v>10</v>
       </c>
-      <c r="AH4">
+      <c r="AJ5">
         <v>50.64</v>
       </c>
-      <c r="AL4">
+      <c r="AN5">
         <v>10</v>
       </c>
-      <c r="AM4">
+      <c r="AO5">
         <v>50.64</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP5" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4">
+      <c r="AS5">
         <v>10</v>
       </c>
-      <c r="AR4">
+      <c r="AT5">
         <v>50.64</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU5" t="s">
         <v>12</v>
       </c>
-      <c r="AV4">
+      <c r="AX5">
         <v>10</v>
       </c>
-      <c r="AW4">
+      <c r="AY5">
         <v>50.64</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ5" t="s">
         <v>12</v>
       </c>
-      <c r="BA4">
+      <c r="BC5">
         <v>10</v>
       </c>
-      <c r="BB4">
+      <c r="BD5">
         <v>50.64</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE5" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BH5" s="1">
         <v>10</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BI5" s="1">
         <v>50.64</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ5" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL5" t="s">
         <v>14</v>
       </c>
-      <c r="BK4">
+      <c r="BM5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>52</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>93</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>90</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>42</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="S6">
+        <f t="shared" ref="S5:S24" si="6">POWER(J$4-B6,2)</f>
         <v>100</v>
       </c>
-      <c r="T5">
+      <c r="T6">
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="U5">
+      <c r="U6">
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="V5">
+      <c r="V6">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="W5">
+      <c r="W6">
+        <f t="shared" si="3"/>
         <v>1521</v>
       </c>
-      <c r="X5">
+      <c r="X6">
+        <f t="shared" si="4"/>
         <v>6400</v>
       </c>
-      <c r="Y5">
-        <v>149.07</v>
-      </c>
-      <c r="AC5">
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>22221</v>
+      </c>
+      <c r="Z6">
+        <f>SQRT(Y6)</f>
+        <v>149.06709898565813</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>149.06709898565813</v>
+      </c>
+      <c r="AE6">
         <v>19</v>
       </c>
-      <c r="AD5">
+      <c r="AF6">
         <v>65.8</v>
       </c>
-      <c r="AG5">
+      <c r="AI6">
         <v>19</v>
       </c>
-      <c r="AH5">
+      <c r="AJ6">
         <v>65.8</v>
       </c>
-      <c r="AL5">
+      <c r="AN6">
         <v>19</v>
       </c>
-      <c r="AM5">
+      <c r="AO6">
         <v>65.8</v>
       </c>
-      <c r="AQ5">
+      <c r="AS6">
         <v>19</v>
       </c>
-      <c r="AR5">
+      <c r="AT6">
         <v>65.8</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AU6" t="s">
         <v>12</v>
       </c>
-      <c r="AV5">
+      <c r="AX6">
         <v>19</v>
       </c>
-      <c r="AW5">
+      <c r="AY6">
         <v>65.8</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ6" t="s">
         <v>12</v>
       </c>
-      <c r="BA5">
+      <c r="BC6">
         <v>19</v>
       </c>
-      <c r="BB5">
+      <c r="BD6">
         <v>65.8</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BE6" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BH6" s="1">
         <v>19</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BI6" s="1">
         <v>65.8</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BJ6" t="s">
         <v>12</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL6" t="s">
         <v>16</v>
       </c>
-      <c r="BK5">
+      <c r="BM6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>73</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>55</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>78</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="S7">
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
-      <c r="T6">
+      <c r="T7">
+        <f t="shared" si="0"/>
         <v>2704</v>
       </c>
-      <c r="U6">
+      <c r="U7">
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="V6">
+      <c r="V7">
+        <f t="shared" si="2"/>
         <v>5625</v>
       </c>
-      <c r="W6">
+      <c r="W7">
+        <f t="shared" si="3"/>
         <v>5625</v>
       </c>
-      <c r="X6">
+      <c r="X7">
+        <f t="shared" si="4"/>
         <v>1369</v>
       </c>
-      <c r="Y6">
-        <v>128.74</v>
-      </c>
-      <c r="AC6">
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>16573</v>
+      </c>
+      <c r="Z7">
+        <f>SQRT(Y7)</f>
+        <v>128.73616430513999</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>128.73616430513999</v>
+      </c>
+      <c r="AE7">
         <v>20</v>
       </c>
-      <c r="AD6">
+      <c r="AF7">
         <v>71.27</v>
       </c>
-      <c r="AG6">
+      <c r="AI7">
         <v>20</v>
       </c>
-      <c r="AH6">
+      <c r="AJ7">
         <v>71.27</v>
       </c>
-      <c r="AL6">
+      <c r="AN7">
         <v>20</v>
       </c>
-      <c r="AM6">
+      <c r="AO7">
         <v>71.27</v>
       </c>
-      <c r="AQ6">
+      <c r="AS7">
         <v>20</v>
       </c>
-      <c r="AR6">
+      <c r="AT7">
         <v>71.27</v>
       </c>
-      <c r="AV6">
+      <c r="AX7">
         <v>20</v>
       </c>
-      <c r="AW6">
+      <c r="AY7">
         <v>71.27</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AZ7" t="s">
         <v>12</v>
       </c>
-      <c r="BA6">
+      <c r="BC7">
         <v>20</v>
       </c>
-      <c r="BB6">
+      <c r="BD7">
         <v>71.27</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE7" t="s">
         <v>12</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BH7" s="1">
         <v>20</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BI7" s="1">
         <v>71.27</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BJ7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>56</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>90</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>81</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="S7">
+      <c r="S8">
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
-      <c r="T7">
+      <c r="T8">
+        <f t="shared" si="0"/>
         <v>7569</v>
       </c>
-      <c r="U7">
+      <c r="U8">
+        <f t="shared" si="1"/>
         <v>2601</v>
       </c>
-      <c r="V7">
+      <c r="V8">
+        <f t="shared" si="2"/>
         <v>2916</v>
       </c>
-      <c r="W7">
+      <c r="W8">
+        <f t="shared" si="3"/>
         <v>3249</v>
       </c>
-      <c r="X7">
+      <c r="X8">
+        <f t="shared" si="4"/>
         <v>1156</v>
       </c>
-      <c r="Y7">
-        <v>132.99</v>
-      </c>
-      <c r="AC7">
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>17687</v>
+      </c>
+      <c r="Z8">
+        <f>SQRT(Y8)</f>
+        <v>132.99248099046804</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>132.99248099046804</v>
+      </c>
+      <c r="AE8">
         <v>6</v>
       </c>
-      <c r="AD7">
+      <c r="AF8">
         <v>107.81</v>
       </c>
-      <c r="AG7">
+      <c r="AI8">
         <v>6</v>
       </c>
-      <c r="AH7">
+      <c r="AJ8">
         <v>107.81</v>
       </c>
-      <c r="AL7">
+      <c r="AN8">
         <v>6</v>
       </c>
-      <c r="AM7">
+      <c r="AO8">
         <v>107.81</v>
       </c>
-      <c r="AQ7">
+      <c r="AS8">
         <v>6</v>
       </c>
-      <c r="AR7">
+      <c r="AT8">
         <v>107.81</v>
       </c>
-      <c r="AV7">
+      <c r="AX8">
         <v>6</v>
       </c>
-      <c r="AW7">
+      <c r="AY8">
         <v>107.81</v>
       </c>
-      <c r="BA7">
+      <c r="BC8">
         <v>6</v>
       </c>
-      <c r="BB7">
+      <c r="BD8">
         <v>107.81</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BE8" t="s">
         <v>14</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BH8" s="1">
         <v>6</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BI8" s="1">
         <v>107.81</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BJ8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>99</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>87</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>3249</v>
-      </c>
-      <c r="T8">
-        <v>324</v>
-      </c>
-      <c r="U8">
-        <v>676</v>
-      </c>
-      <c r="V8">
-        <v>196</v>
-      </c>
-      <c r="W8">
-        <v>7056</v>
-      </c>
-      <c r="X8">
-        <v>121</v>
-      </c>
-      <c r="Y8">
-        <v>107.81</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>109.98</v>
-      </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AH8">
-        <v>109.98</v>
-      </c>
-      <c r="AL8">
-        <v>2</v>
-      </c>
-      <c r="AM8">
-        <v>109.98</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-      <c r="AR8">
-        <v>109.98</v>
-      </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>109.98</v>
-      </c>
-      <c r="BA8">
-        <v>2</v>
-      </c>
-      <c r="BB8">
-        <v>109.98</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>109.98</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>84</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>79</v>
-      </c>
-      <c r="G9">
-        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>3249</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>7056</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>11622</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z5:Z24" si="7">SQRT(Y9)</f>
+        <v>107.80538019969133</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>107.80538019969133</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>109.98</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>109.98</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>109.98</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>109.98</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>109.98</v>
+      </c>
+      <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>109.98</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>109.98</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
         <v>1764</v>
       </c>
-      <c r="T9">
+      <c r="T10">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="U9">
+      <c r="U10">
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="V9">
+      <c r="V10">
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
-      <c r="W9">
+      <c r="W10">
+        <f t="shared" si="3"/>
         <v>5776</v>
       </c>
-      <c r="X9">
+      <c r="X10">
+        <f t="shared" si="4"/>
         <v>2304</v>
       </c>
-      <c r="Y9">
-        <v>132.97999999999999</v>
-      </c>
-      <c r="AC9">
+      <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>17684</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="7"/>
+        <v>132.98120167903431</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>132.98120167903431</v>
+      </c>
+      <c r="AE10">
         <v>18</v>
       </c>
-      <c r="AD9">
+      <c r="AF10">
         <v>111.83</v>
       </c>
-      <c r="AG9">
+      <c r="AI10">
         <v>18</v>
       </c>
-      <c r="AH9">
+      <c r="AJ10">
         <v>111.83</v>
       </c>
-      <c r="AL9">
+      <c r="AN10">
         <v>18</v>
       </c>
-      <c r="AM9">
+      <c r="AO10">
         <v>111.83</v>
       </c>
-      <c r="AQ9">
+      <c r="AS10">
         <v>18</v>
       </c>
-      <c r="AR9">
+      <c r="AT10">
         <v>111.83</v>
       </c>
-      <c r="AV9">
+      <c r="AX10">
         <v>18</v>
       </c>
-      <c r="AW9">
+      <c r="AY10">
         <v>111.83</v>
       </c>
-      <c r="BA9">
+      <c r="BC10">
         <v>18</v>
       </c>
-      <c r="BB9">
+      <c r="BD10">
         <v>111.83</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BH10" s="1">
         <v>18</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BI10" s="1">
         <v>111.83</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BJ10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>77</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>75</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>93</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>67</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>1225</v>
-      </c>
-      <c r="T10">
-        <v>5184</v>
-      </c>
-      <c r="U10">
-        <v>3969</v>
-      </c>
-      <c r="V10">
-        <v>81</v>
-      </c>
-      <c r="W10">
-        <v>729</v>
-      </c>
-      <c r="X10">
-        <v>4761</v>
-      </c>
-      <c r="Y10">
-        <v>126.29</v>
-      </c>
-      <c r="AC10">
-        <v>11</v>
-      </c>
-      <c r="AD10">
-        <v>122.55</v>
-      </c>
-      <c r="AG10">
-        <v>11</v>
-      </c>
-      <c r="AH10">
-        <v>122.55</v>
-      </c>
-      <c r="AL10">
-        <v>11</v>
-      </c>
-      <c r="AM10">
-        <v>122.55</v>
-      </c>
-      <c r="AQ10">
-        <v>11</v>
-      </c>
-      <c r="AR10">
-        <v>122.55</v>
-      </c>
-      <c r="AV10">
-        <v>11</v>
-      </c>
-      <c r="AW10">
-        <v>122.55</v>
-      </c>
-      <c r="BA10">
-        <v>11</v>
-      </c>
-      <c r="BB10">
-        <v>122.55</v>
-      </c>
-      <c r="BF10" s="1">
-        <v>11</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>122.55</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>96</v>
-      </c>
-      <c r="D11">
-        <v>92</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>1225</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>5184</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>3969</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>4761</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>15949</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>126.28935030318273</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>126.28935030318273</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>122.55</v>
+      </c>
+      <c r="AI11">
+        <v>11</v>
+      </c>
+      <c r="AJ11">
+        <v>122.55</v>
+      </c>
+      <c r="AN11">
+        <v>11</v>
+      </c>
+      <c r="AO11">
+        <v>122.55</v>
+      </c>
+      <c r="AS11">
+        <v>11</v>
+      </c>
+      <c r="AT11">
+        <v>122.55</v>
+      </c>
+      <c r="AX11">
+        <v>11</v>
+      </c>
+      <c r="AY11">
+        <v>122.55</v>
+      </c>
+      <c r="BC11">
+        <v>11</v>
+      </c>
+      <c r="BD11">
+        <v>122.55</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>11</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>122.55</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="S11">
+      <c r="B12">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="T11">
+      <c r="T12">
+        <f t="shared" si="0"/>
         <v>8649</v>
       </c>
-      <c r="U11">
+      <c r="U12">
+        <f t="shared" si="1"/>
         <v>3844</v>
       </c>
-      <c r="V11">
+      <c r="V12">
+        <f t="shared" si="2"/>
         <v>2304</v>
       </c>
-      <c r="W11">
+      <c r="W12">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="X11">
+      <c r="X12">
+        <f t="shared" si="4"/>
         <v>1369</v>
       </c>
-      <c r="Y11">
-        <v>129.12</v>
-      </c>
-      <c r="AC11">
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>16671</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>129.11622671066561</v>
+      </c>
+      <c r="AB12">
+        <v>9</v>
+      </c>
+      <c r="AC12">
+        <v>129.11622671066561</v>
+      </c>
+      <c r="AE12">
         <v>13</v>
       </c>
-      <c r="AD11">
+      <c r="AF12">
         <v>123.31</v>
       </c>
-      <c r="AG11">
+      <c r="AI12">
         <v>13</v>
       </c>
-      <c r="AH11">
+      <c r="AJ12">
         <v>123.31</v>
       </c>
-      <c r="AL11">
+      <c r="AN12">
         <v>13</v>
       </c>
-      <c r="AM11">
+      <c r="AO12">
         <v>123.31</v>
       </c>
-      <c r="AQ11">
+      <c r="AS12">
         <v>13</v>
       </c>
-      <c r="AR11">
+      <c r="AT12">
         <v>123.31</v>
       </c>
-      <c r="AV11">
+      <c r="AX12">
         <v>13</v>
       </c>
-      <c r="AW11">
+      <c r="AY12">
         <v>123.31</v>
       </c>
-      <c r="BA11">
+      <c r="BC12">
         <v>13</v>
       </c>
-      <c r="BB11">
+      <c r="BD12">
         <v>123.31</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BH12" s="1">
         <v>13</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BI12" s="1">
         <v>123.31</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BJ12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>89</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>37</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>96</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>10</v>
       </c>
-      <c r="S12">
+      <c r="S13">
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
-      <c r="T12">
+      <c r="T13">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U12">
+      <c r="U13">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="V12">
+      <c r="V13">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="W12">
+      <c r="W13">
+        <f t="shared" si="3"/>
         <v>1156</v>
       </c>
-      <c r="X12">
+      <c r="X13">
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="Y12">
-        <v>50.64</v>
-      </c>
-      <c r="AC12">
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>2564</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>50.635955604688654</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>50.635955604688654</v>
+      </c>
+      <c r="AE13">
         <v>8</v>
       </c>
-      <c r="AD12">
+      <c r="AF13">
         <v>126.29</v>
       </c>
-      <c r="AG12">
+      <c r="AI13">
         <v>8</v>
       </c>
-      <c r="AH12">
+      <c r="AJ13">
         <v>126.29</v>
       </c>
-      <c r="AL12">
+      <c r="AN13">
         <v>8</v>
       </c>
-      <c r="AM12">
+      <c r="AO13">
         <v>126.29</v>
       </c>
-      <c r="AQ12">
+      <c r="AS13">
         <v>8</v>
       </c>
-      <c r="AR12">
+      <c r="AT13">
         <v>126.29</v>
       </c>
-      <c r="AV12">
+      <c r="AX13">
         <v>8</v>
       </c>
-      <c r="AW12">
+      <c r="AY13">
         <v>126.29</v>
       </c>
-      <c r="BA12">
+      <c r="BC13">
         <v>8</v>
       </c>
-      <c r="BB12">
+      <c r="BD13">
         <v>126.29</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BH13" s="1">
         <v>8</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BI13" s="1">
         <v>126.29</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BJ13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>82</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>57</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>88</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>11</v>
       </c>
-      <c r="S13">
+      <c r="S14">
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
-      <c r="T13">
+      <c r="T14">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="U13">
+      <c r="U14">
+        <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="V13">
+      <c r="V14">
+        <f t="shared" si="2"/>
         <v>5329</v>
       </c>
-      <c r="W13">
+      <c r="W14">
+        <f t="shared" si="3"/>
         <v>7225</v>
       </c>
-      <c r="X13">
+      <c r="X14">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="Y13">
-        <v>122.55</v>
-      </c>
-      <c r="AC13">
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>15019</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>122.55202976695246</v>
+      </c>
+      <c r="AB14">
+        <v>11</v>
+      </c>
+      <c r="AC14">
+        <v>122.55202976695246</v>
+      </c>
+      <c r="AE14">
         <v>4</v>
       </c>
-      <c r="AD13">
+      <c r="AF14">
         <v>128.74</v>
       </c>
-      <c r="AG13">
+      <c r="AI14">
         <v>4</v>
       </c>
-      <c r="AH13">
+      <c r="AJ14">
         <v>128.74</v>
       </c>
-      <c r="AL13">
+      <c r="AN14">
         <v>4</v>
       </c>
-      <c r="AM13">
+      <c r="AO14">
         <v>128.74</v>
       </c>
-      <c r="AQ13">
+      <c r="AS14">
         <v>4</v>
       </c>
-      <c r="AR13">
+      <c r="AT14">
         <v>128.74</v>
       </c>
-      <c r="AV13">
+      <c r="AX14">
         <v>4</v>
       </c>
-      <c r="AW13">
+      <c r="AY14">
         <v>128.74</v>
       </c>
-      <c r="BA13">
+      <c r="BC14">
         <v>4</v>
       </c>
-      <c r="BB13">
+      <c r="BD14">
         <v>128.74</v>
       </c>
-      <c r="BF13">
+      <c r="BH14">
         <v>4</v>
       </c>
-      <c r="BG13">
+      <c r="BI14">
         <v>128.74</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>88</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>92</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>28</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>56</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <v>12</v>
-      </c>
-      <c r="S14">
-        <v>441</v>
-      </c>
-      <c r="T14">
-        <v>7225</v>
-      </c>
-      <c r="U14">
-        <v>3844</v>
-      </c>
-      <c r="V14">
-        <v>2304</v>
-      </c>
-      <c r="W14">
-        <v>2809</v>
-      </c>
-      <c r="X14">
-        <v>3721</v>
-      </c>
-      <c r="Y14">
-        <v>142.63</v>
-      </c>
-      <c r="AC14">
-        <v>9</v>
-      </c>
-      <c r="AD14">
-        <v>129.12</v>
-      </c>
-      <c r="AG14">
-        <v>9</v>
-      </c>
-      <c r="AH14">
-        <v>129.12</v>
-      </c>
-      <c r="AL14">
-        <v>9</v>
-      </c>
-      <c r="AM14">
-        <v>129.12</v>
-      </c>
-      <c r="AQ14">
-        <v>9</v>
-      </c>
-      <c r="AR14">
-        <v>129.12</v>
-      </c>
-      <c r="AV14">
-        <v>9</v>
-      </c>
-      <c r="AW14">
-        <v>129.12</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
-      </c>
-      <c r="BB14">
-        <v>129.12</v>
-      </c>
-      <c r="BF14">
-        <v>9</v>
-      </c>
-      <c r="BG14">
-        <v>129.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>93</v>
-      </c>
-      <c r="D15">
-        <v>99</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
-      <c r="G15">
-        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
       </c>
       <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>7225</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>3844</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2304</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>2809</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>3721</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>20344</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>142.63239463740345</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>142.63239463740345</v>
+      </c>
+      <c r="AE15">
+        <v>9</v>
+      </c>
+      <c r="AF15">
+        <v>129.12</v>
+      </c>
+      <c r="AI15">
+        <v>9</v>
+      </c>
+      <c r="AJ15">
+        <v>129.12</v>
+      </c>
+      <c r="AN15">
+        <v>9</v>
+      </c>
+      <c r="AO15">
+        <v>129.12</v>
+      </c>
+      <c r="AS15">
+        <v>9</v>
+      </c>
+      <c r="AT15">
+        <v>129.12</v>
+      </c>
+      <c r="AX15">
+        <v>9</v>
+      </c>
+      <c r="AY15">
+        <v>129.12</v>
+      </c>
+      <c r="BC15">
+        <v>9</v>
+      </c>
+      <c r="BD15">
+        <v>129.12</v>
+      </c>
+      <c r="BH15">
+        <v>9</v>
+      </c>
+      <c r="BI15">
+        <v>129.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="S15">
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
-      <c r="T15">
+      <c r="T16">
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="U15">
+      <c r="U16">
+        <f t="shared" si="1"/>
         <v>4761</v>
       </c>
-      <c r="V15">
+      <c r="V16">
+        <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="W15">
+      <c r="W16">
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="X15">
+      <c r="X16">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Y15">
-        <v>123.31</v>
-      </c>
-      <c r="AC15">
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>15205</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>123.30855606972291</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>123.30855606972291</v>
+      </c>
+      <c r="AE16">
         <v>21</v>
       </c>
-      <c r="AD15">
+      <c r="AF16">
         <v>129.47</v>
       </c>
-      <c r="AG15">
+      <c r="AI16">
         <v>21</v>
       </c>
-      <c r="AH15">
+      <c r="AJ16">
         <v>129.47</v>
       </c>
-      <c r="AL15">
+      <c r="AN16">
         <v>21</v>
       </c>
-      <c r="AM15">
+      <c r="AO16">
         <v>129.47</v>
       </c>
-      <c r="AQ15">
+      <c r="AS16">
         <v>21</v>
       </c>
-      <c r="AR15">
+      <c r="AT16">
         <v>129.47</v>
       </c>
-      <c r="AV15">
+      <c r="AX16">
         <v>21</v>
       </c>
-      <c r="AW15">
+      <c r="AY16">
         <v>129.47</v>
       </c>
-      <c r="BA15">
+      <c r="BC16">
         <v>21</v>
       </c>
-      <c r="BB15">
+      <c r="BD16">
         <v>129.47</v>
       </c>
-      <c r="BF15">
+      <c r="BH16">
         <v>21</v>
       </c>
-      <c r="BG15">
+      <c r="BI16">
         <v>129.47</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>89</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>85</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>96</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>71</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>14</v>
       </c>
-      <c r="S16">
+      <c r="S17">
+        <f t="shared" si="6"/>
         <v>2209</v>
       </c>
-      <c r="T16">
+      <c r="T17">
+        <f t="shared" si="0"/>
         <v>6724</v>
       </c>
-      <c r="U16">
+      <c r="U17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V16">
+      <c r="V17">
+        <f t="shared" si="2"/>
         <v>5625</v>
       </c>
-      <c r="W16">
+      <c r="W17">
+        <f t="shared" si="3"/>
         <v>8649</v>
       </c>
-      <c r="X16">
+      <c r="X17">
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="Y16">
-        <v>152.82</v>
-      </c>
-      <c r="AC16">
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>23355</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>152.82342752340034</v>
+      </c>
+      <c r="AB17">
+        <v>14</v>
+      </c>
+      <c r="AC17">
+        <v>152.82342752340034</v>
+      </c>
+      <c r="AE17">
         <v>16</v>
       </c>
-      <c r="AD16">
+      <c r="AF17">
         <v>130.76</v>
       </c>
-      <c r="AG16">
+      <c r="AI17">
         <v>16</v>
       </c>
-      <c r="AH16">
+      <c r="AJ17">
         <v>130.76</v>
       </c>
-      <c r="AL16">
+      <c r="AN17">
         <v>16</v>
       </c>
-      <c r="AM16">
+      <c r="AO17">
         <v>130.76</v>
       </c>
-      <c r="AQ16">
+      <c r="AS17">
         <v>16</v>
       </c>
-      <c r="AR16">
+      <c r="AT17">
         <v>130.76</v>
       </c>
-      <c r="AV16">
+      <c r="AX17">
         <v>16</v>
       </c>
-      <c r="AW16">
+      <c r="AY17">
         <v>130.76</v>
       </c>
-      <c r="BA16">
+      <c r="BC17">
         <v>16</v>
       </c>
-      <c r="BB16">
+      <c r="BD17">
         <v>130.76</v>
       </c>
-      <c r="BF16">
+      <c r="BH17">
         <v>16</v>
       </c>
-      <c r="BG16">
+      <c r="BI17">
         <v>130.76</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>94</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>89</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>11</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>15</v>
       </c>
-      <c r="S17">
+      <c r="S18">
+        <f t="shared" si="6"/>
         <v>729</v>
       </c>
-      <c r="T17">
+      <c r="T18">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="U17">
+      <c r="U18">
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="V17">
+      <c r="V18">
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="W17">
+      <c r="W18">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="X17">
+      <c r="X18">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="Y17">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AC17">
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>1602</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>40.024992192379003</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+      <c r="AC18">
+        <v>40.024992192379003</v>
+      </c>
+      <c r="AE18">
         <v>7</v>
       </c>
-      <c r="AD17">
+      <c r="AF18">
         <v>132.97999999999999</v>
       </c>
-      <c r="AG17">
+      <c r="AI18">
         <v>7</v>
       </c>
-      <c r="AH17">
+      <c r="AJ18">
         <v>132.97999999999999</v>
       </c>
-      <c r="AL17">
+      <c r="AN18">
         <v>7</v>
       </c>
-      <c r="AM17">
+      <c r="AO18">
         <v>132.97999999999999</v>
       </c>
-      <c r="AQ17">
+      <c r="AS18">
         <v>7</v>
       </c>
-      <c r="AR17">
+      <c r="AT18">
         <v>132.97999999999999</v>
       </c>
-      <c r="AV17">
+      <c r="AX18">
         <v>7</v>
       </c>
-      <c r="AW17">
+      <c r="AY18">
         <v>132.97999999999999</v>
       </c>
-      <c r="BA17">
+      <c r="BC18">
         <v>7</v>
       </c>
-      <c r="BB17">
+      <c r="BD18">
         <v>132.97999999999999</v>
       </c>
-      <c r="BF17">
+      <c r="BH18">
         <v>7</v>
       </c>
-      <c r="BG17">
+      <c r="BI18">
         <v>132.97999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>97</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>80</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>82</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>16</v>
-      </c>
-      <c r="S18">
-        <v>3025</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>2500</v>
-      </c>
-      <c r="V18">
-        <v>4489</v>
-      </c>
-      <c r="W18">
-        <v>6241</v>
-      </c>
-      <c r="X18">
-        <v>841</v>
-      </c>
-      <c r="Y18">
-        <v>130.76</v>
-      </c>
-      <c r="AC18">
-        <v>5</v>
-      </c>
-      <c r="AD18">
-        <v>132.99</v>
-      </c>
-      <c r="AG18">
-        <v>5</v>
-      </c>
-      <c r="AH18">
-        <v>132.99</v>
-      </c>
-      <c r="AL18">
-        <v>5</v>
-      </c>
-      <c r="AM18">
-        <v>132.99</v>
-      </c>
-      <c r="AQ18">
-        <v>5</v>
-      </c>
-      <c r="AR18">
-        <v>132.99</v>
-      </c>
-      <c r="AV18">
-        <v>5</v>
-      </c>
-      <c r="AW18">
-        <v>132.99</v>
-      </c>
-      <c r="BA18">
-        <v>5</v>
-      </c>
-      <c r="BB18">
-        <v>132.99</v>
-      </c>
-      <c r="BF18">
-        <v>5</v>
-      </c>
-      <c r="BG18">
-        <v>132.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>99</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>66</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>84</v>
-      </c>
-      <c r="G19">
-        <v>38</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="R19">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>3025</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>4489</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>6241</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>841</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>17097</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>130.75549701637786</v>
+      </c>
+      <c r="AB19">
+        <v>16</v>
+      </c>
+      <c r="AC19">
+        <v>130.75549701637786</v>
+      </c>
+      <c r="AE19">
+        <v>5</v>
+      </c>
+      <c r="AF19">
+        <v>132.99</v>
+      </c>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19">
+        <v>132.99</v>
+      </c>
+      <c r="AN19">
+        <v>5</v>
+      </c>
+      <c r="AO19">
+        <v>132.99</v>
+      </c>
+      <c r="AS19">
+        <v>5</v>
+      </c>
+      <c r="AT19">
+        <v>132.99</v>
+      </c>
+      <c r="AX19">
+        <v>5</v>
+      </c>
+      <c r="AY19">
+        <v>132.99</v>
+      </c>
+      <c r="BC19">
+        <v>5</v>
+      </c>
+      <c r="BD19">
+        <v>132.99</v>
+      </c>
+      <c r="BH19">
+        <v>5</v>
+      </c>
+      <c r="BI19">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="S19">
+      <c r="B20">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
         <v>3249</v>
       </c>
-      <c r="T19">
+      <c r="T20">
+        <f t="shared" si="0"/>
         <v>1369</v>
       </c>
-      <c r="U19">
+      <c r="U20">
+        <f t="shared" si="1"/>
         <v>1296</v>
       </c>
-      <c r="V19">
+      <c r="V20">
+        <f t="shared" si="2"/>
         <v>5625</v>
       </c>
-      <c r="W19">
+      <c r="W20">
+        <f t="shared" si="3"/>
         <v>6561</v>
       </c>
-      <c r="X19">
+      <c r="X20">
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>20125</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>141.86260959111107</v>
+      </c>
+      <c r="AB20">
+        <v>17</v>
+      </c>
+      <c r="AC20">
+        <v>141.86260959111107</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>133.59</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>133.59</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>133.59</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>133.59</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>133.59</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>133.59</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>133.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>2916</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>2401</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>12506</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>111.83022847155415</v>
+      </c>
+      <c r="AB21">
+        <v>18</v>
+      </c>
+      <c r="AC21">
+        <v>111.83022847155415</v>
+      </c>
+      <c r="AE21">
+        <v>17</v>
+      </c>
+      <c r="AF21">
         <v>141.86000000000001</v>
       </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>133.59</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>133.59</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>133.59</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AR19">
-        <v>133.59</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>133.59</v>
-      </c>
-      <c r="BA19">
-        <v>1</v>
-      </c>
-      <c r="BB19">
-        <v>133.59</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>133.59</v>
+      <c r="AI21">
+        <v>17</v>
+      </c>
+      <c r="AJ21">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="AN21">
+        <v>17</v>
+      </c>
+      <c r="AO21">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="AS21">
+        <v>17</v>
+      </c>
+      <c r="AT21">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="AX21">
+        <v>17</v>
+      </c>
+      <c r="AY21">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="BC21">
+        <v>17</v>
+      </c>
+      <c r="BD21">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="BH21">
+        <v>17</v>
+      </c>
+      <c r="BI21">
+        <v>141.86000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>85</v>
-      </c>
-      <c r="D20">
-        <v>84</v>
-      </c>
-      <c r="E20">
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R20">
-        <v>18</v>
-      </c>
-      <c r="S20">
-        <v>361</v>
-      </c>
-      <c r="T20">
-        <v>6724</v>
-      </c>
-      <c r="U20">
-        <v>2916</v>
-      </c>
-      <c r="V20">
-        <v>100</v>
-      </c>
-      <c r="W20">
-        <v>4</v>
-      </c>
-      <c r="X20">
-        <v>2401</v>
-      </c>
-      <c r="Y20">
-        <v>111.83</v>
-      </c>
-      <c r="AC20">
-        <v>17</v>
-      </c>
-      <c r="AD20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="AG20">
-        <v>17</v>
-      </c>
-      <c r="AH20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="AL20">
-        <v>17</v>
-      </c>
-      <c r="AM20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="AQ20">
-        <v>17</v>
-      </c>
-      <c r="AR20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="AV20">
-        <v>17</v>
-      </c>
-      <c r="AW20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="BA20">
-        <v>17</v>
-      </c>
-      <c r="BB20">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="BF20">
-        <v>17</v>
-      </c>
-      <c r="BG20">
-        <v>141.86000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>50</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>89</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>40</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>90</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21">
-        <v>19</v>
-      </c>
-      <c r="S21">
-        <v>529</v>
-      </c>
-      <c r="T21">
-        <v>2209</v>
-      </c>
-      <c r="U21">
-        <v>4</v>
-      </c>
-      <c r="V21">
-        <v>169</v>
-      </c>
-      <c r="W21">
-        <v>1369</v>
-      </c>
-      <c r="X21">
-        <v>49</v>
-      </c>
-      <c r="Y21">
-        <v>65.8</v>
-      </c>
-      <c r="AC21">
-        <v>12</v>
-      </c>
-      <c r="AD21">
-        <v>142.63</v>
-      </c>
-      <c r="AG21">
-        <v>12</v>
-      </c>
-      <c r="AH21">
-        <v>142.63</v>
-      </c>
-      <c r="AL21">
-        <v>12</v>
-      </c>
-      <c r="AM21">
-        <v>142.63</v>
-      </c>
-      <c r="AQ21">
-        <v>12</v>
-      </c>
-      <c r="AR21">
-        <v>142.63</v>
-      </c>
-      <c r="AV21">
-        <v>12</v>
-      </c>
-      <c r="AW21">
-        <v>142.63</v>
-      </c>
-      <c r="BA21">
-        <v>12</v>
-      </c>
-      <c r="BB21">
-        <v>142.63</v>
-      </c>
-      <c r="BF21">
-        <v>12</v>
-      </c>
-      <c r="BG21">
-        <v>142.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>41</v>
-      </c>
-      <c r="E22">
-        <v>84</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>82</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
       <c r="R22">
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>2209</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>1369</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>4329</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>65.79513659838392</v>
+      </c>
+      <c r="AB22">
+        <v>19</v>
+      </c>
+      <c r="AC22">
+        <v>65.79513659838392</v>
+      </c>
+      <c r="AE22">
+        <v>12</v>
+      </c>
+      <c r="AF22">
+        <v>142.63</v>
+      </c>
+      <c r="AI22">
+        <v>12</v>
+      </c>
+      <c r="AJ22">
+        <v>142.63</v>
+      </c>
+      <c r="AN22">
+        <v>12</v>
+      </c>
+      <c r="AO22">
+        <v>142.63</v>
+      </c>
+      <c r="AS22">
+        <v>12</v>
+      </c>
+      <c r="AT22">
+        <v>142.63</v>
+      </c>
+      <c r="AX22">
+        <v>12</v>
+      </c>
+      <c r="AY22">
+        <v>142.63</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>142.63</v>
+      </c>
+      <c r="BH22">
+        <v>12</v>
+      </c>
+      <c r="BI22">
+        <v>142.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="S22">
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T22">
+      <c r="T23">
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
-      <c r="U22">
+      <c r="U23">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="V22">
+      <c r="V23">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="W22">
+      <c r="W23">
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="X22">
+      <c r="X23">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y22">
-        <v>71.27</v>
-      </c>
-      <c r="AC22">
+      <c r="Y23">
+        <f t="shared" si="5"/>
+        <v>5079</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>71.267103210387333</v>
+      </c>
+      <c r="AB23">
+        <v>20</v>
+      </c>
+      <c r="AC23">
+        <v>71.267103210387333</v>
+      </c>
+      <c r="AE23">
         <v>3</v>
       </c>
-      <c r="AD22">
+      <c r="AF23">
         <v>149.07</v>
       </c>
-      <c r="AG22">
+      <c r="AI23">
         <v>3</v>
       </c>
-      <c r="AH22">
+      <c r="AJ23">
         <v>149.07</v>
       </c>
-      <c r="AL22">
+      <c r="AN23">
         <v>3</v>
       </c>
-      <c r="AM22">
+      <c r="AO23">
         <v>149.07</v>
       </c>
-      <c r="AQ22">
+      <c r="AS23">
         <v>3</v>
       </c>
-      <c r="AR22">
+      <c r="AT23">
         <v>149.07</v>
       </c>
-      <c r="AV22">
+      <c r="AX23">
         <v>3</v>
       </c>
-      <c r="AW22">
+      <c r="AY23">
         <v>149.07</v>
       </c>
-      <c r="BA22">
+      <c r="BC23">
         <v>3</v>
       </c>
-      <c r="BB22">
+      <c r="BD23">
         <v>149.07</v>
       </c>
-      <c r="BF22">
+      <c r="BH23">
         <v>3</v>
       </c>
-      <c r="BG22">
+      <c r="BI23">
         <v>149.07</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>78</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>53</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>30</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>86</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>23</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <v>21</v>
       </c>
-      <c r="S23">
+      <c r="S24">
+        <f t="shared" si="6"/>
         <v>1296</v>
       </c>
-      <c r="T23">
+      <c r="T24">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="U23">
+      <c r="U24">
+        <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="V23">
+      <c r="V24">
+        <f t="shared" si="2"/>
         <v>2116</v>
       </c>
-      <c r="W23">
+      <c r="W24">
+        <f t="shared" si="3"/>
         <v>6889</v>
       </c>
-      <c r="X23">
+      <c r="X24">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="Y23">
-        <v>129.47</v>
-      </c>
-      <c r="AC23">
+      <c r="Y24">
+        <f t="shared" si="5"/>
+        <v>16762</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>129.46814279968643</v>
+      </c>
+      <c r="AB24">
+        <v>21</v>
+      </c>
+      <c r="AC24">
+        <v>129.46814279968643</v>
+      </c>
+      <c r="AE24">
         <v>14</v>
       </c>
-      <c r="AD23">
+      <c r="AF24">
         <v>152.82</v>
       </c>
-      <c r="AG23">
+      <c r="AI24">
         <v>14</v>
       </c>
-      <c r="AH23">
+      <c r="AJ24">
         <v>152.82</v>
       </c>
-      <c r="AL23">
+      <c r="AN24">
         <v>14</v>
       </c>
-      <c r="AM23">
+      <c r="AO24">
         <v>152.82</v>
       </c>
-      <c r="AQ23">
+      <c r="AS24">
         <v>14</v>
       </c>
-      <c r="AR23">
+      <c r="AT24">
         <v>152.82</v>
       </c>
-      <c r="AV23">
+      <c r="AX24">
         <v>14</v>
       </c>
-      <c r="AW23">
+      <c r="AY24">
         <v>152.82</v>
       </c>
-      <c r="BA23">
+      <c r="BC24">
         <v>14</v>
       </c>
-      <c r="BB23">
+      <c r="BD24">
         <v>152.82</v>
       </c>
-      <c r="BF23">
+      <c r="BH24">
         <v>14</v>
       </c>
-      <c r="BG23">
+      <c r="BI24">
         <v>152.82</v>
       </c>
     </row>
@@ -3090,18 +3517,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="55" max="55" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG1" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3134,6 +3564,7 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
+      <c r="P2" s="4"/>
       <c r="R2" t="s">
         <v>8</v>
       </c>
@@ -3189,7 +3620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3232,18 +3663,18 @@
       <c r="O3">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:X3" si="0">POWER(J$3-B3,2)</f>
+        <f>POWER(J$3-B3,2)</f>
         <v>3249</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S3:X3" si="0">POWER(K$3-C3,2)</f>
         <v>25</v>
       </c>
       <c r="U3">
@@ -3262,7 +3693,7 @@
         <f t="shared" si="0"/>
         <v>3136</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <f>SQRT(SUM(S3:X3))</f>
         <v>116.46029366269003</v>
       </c>
@@ -3348,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3373,7 +3804,8 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="R4">
+      <c r="P4" s="4"/>
+      <c r="R4" s="3">
         <v>2</v>
       </c>
       <c r="S4">
@@ -3400,7 +3832,7 @@
         <f t="shared" ref="X4:X23" si="3">POWER(O$3-G4,2)</f>
         <v>3136</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <f t="shared" ref="Y4:Y23" si="4">SQRT(SUM(S4:X4))</f>
         <v>115.31261856362468</v>
       </c>
@@ -3483,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3508,7 +3940,8 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="R5">
+      <c r="P5" s="4"/>
+      <c r="R5" s="3">
         <v>3</v>
       </c>
       <c r="S5">
@@ -3535,7 +3968,7 @@
         <f t="shared" si="3"/>
         <v>961</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="3">
         <f t="shared" si="4"/>
         <v>71.99305522062528</v>
       </c>
@@ -3615,7 +4048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3640,7 +4073,7 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>4</v>
       </c>
       <c r="S6">
@@ -3667,7 +4100,7 @@
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <f t="shared" si="4"/>
         <v>136.89046716261873</v>
       </c>
@@ -3732,7 +4165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3757,7 +4190,7 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>5</v>
       </c>
       <c r="S7">
@@ -3784,7 +4217,7 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="3">
         <f t="shared" si="4"/>
         <v>82.249620059912743</v>
       </c>
@@ -3846,7 +4279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3871,7 +4304,7 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>6</v>
       </c>
       <c r="S8">
@@ -3898,7 +4331,7 @@
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="3">
         <f t="shared" si="4"/>
         <v>166.86521506892922</v>
       </c>
@@ -3957,7 +4390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3982,7 +4415,7 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>7</v>
       </c>
       <c r="S9">
@@ -4009,7 +4442,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="3">
         <f t="shared" si="4"/>
         <v>132.52169633686404</v>
       </c>
@@ -4068,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4093,7 +4526,7 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>8</v>
       </c>
       <c r="S10">
@@ -4120,7 +4553,7 @@
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="3">
         <f t="shared" si="4"/>
         <v>65.871086221497819</v>
       </c>
@@ -4179,7 +4612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4204,7 +4637,7 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>9</v>
       </c>
       <c r="S11">
@@ -4231,7 +4664,7 @@
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="3">
         <f t="shared" si="4"/>
         <v>58.932164392630277</v>
       </c>
@@ -4290,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4315,7 +4748,7 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>10</v>
       </c>
       <c r="S12">
@@ -4342,7 +4775,7 @@
         <f t="shared" si="3"/>
         <v>3844</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <f t="shared" si="4"/>
         <v>130.89690599857585</v>
       </c>
@@ -4401,7 +4834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4426,7 +4859,7 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>11</v>
       </c>
       <c r="S13">
@@ -4453,7 +4886,7 @@
         <f t="shared" si="3"/>
         <v>1521</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="3">
         <f t="shared" si="4"/>
         <v>151.80579699076054</v>
       </c>
@@ -4509,7 +4942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4534,7 +4967,7 @@
       <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>12</v>
       </c>
       <c r="S14">
@@ -4561,7 +4994,7 @@
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="3">
         <f t="shared" si="4"/>
         <v>68.483574673055728</v>
       </c>
@@ -4617,7 +5050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4642,7 +5075,7 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>13</v>
       </c>
       <c r="S15">
@@ -4669,7 +5102,7 @@
         <f t="shared" si="3"/>
         <v>2601</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="3">
         <f t="shared" si="4"/>
         <v>68.110204815431288</v>
       </c>
@@ -4725,7 +5158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4750,7 +5183,7 @@
       <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>14</v>
       </c>
       <c r="S16">
@@ -4777,7 +5210,7 @@
         <f t="shared" si="3"/>
         <v>1369</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="3">
         <f t="shared" si="4"/>
         <v>147.23790272888297</v>
       </c>
@@ -4830,7 +5263,7 @@
         <v>132.52169633686404</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4855,7 +5288,7 @@
       <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>15</v>
       </c>
       <c r="S17">
@@ -4882,7 +5315,7 @@
         <f t="shared" si="3"/>
         <v>3025</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="3">
         <f t="shared" si="4"/>
         <v>117.17508267545622</v>
       </c>
@@ -4935,7 +5368,7 @@
         <v>134.23859355639868</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4960,7 +5393,7 @@
       <c r="H18" t="s">
         <v>10</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>16</v>
       </c>
       <c r="S18">
@@ -4987,7 +5420,7 @@
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <f t="shared" si="4"/>
         <v>149.20790863757858</v>
       </c>
@@ -5040,7 +5473,7 @@
         <v>136.89046716261873</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5065,7 +5498,7 @@
       <c r="H19" t="s">
         <v>10</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>17</v>
       </c>
       <c r="S19">
@@ -5092,7 +5525,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="3">
         <f t="shared" si="4"/>
         <v>138.76238683447326</v>
       </c>
@@ -5145,7 +5578,7 @@
         <v>138.76238683447326</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5170,7 +5603,7 @@
       <c r="H20" t="s">
         <v>11</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>18</v>
       </c>
       <c r="S20">
@@ -5197,7 +5630,7 @@
         <f t="shared" si="3"/>
         <v>2401</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <f t="shared" si="4"/>
         <v>111.83022847155415</v>
       </c>
@@ -5250,7 +5683,7 @@
         <v>147.23790272888297</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5275,7 +5708,7 @@
       <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>19</v>
       </c>
       <c r="S21">
@@ -5302,7 +5735,7 @@
         <f t="shared" si="3"/>
         <v>3136</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="3">
         <f t="shared" si="4"/>
         <v>97.790592594584481</v>
       </c>
@@ -5355,7 +5788,7 @@
         <v>149.20790863757858</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5380,7 +5813,7 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>20</v>
       </c>
       <c r="S22">
@@ -5407,7 +5840,7 @@
         <f t="shared" si="3"/>
         <v>2304</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="3">
         <f t="shared" si="4"/>
         <v>70.562029449272501</v>
       </c>
@@ -5460,7 +5893,7 @@
         <v>151.80579699076054</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5485,7 +5918,7 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
         <v>21</v>
       </c>
       <c r="S23">
@@ -5512,7 +5945,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="3">
         <f t="shared" si="4"/>
         <v>134.23859355639868</v>
       </c>
